--- a/LawFirms.xlsx
+++ b/LawFirms.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>[{"name":"Tinashe Charles Cheuka","email":"ctcheuka@gmail.com","position":"Artist","phone":"+263713123711"}]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>[{"name":"Tinashe Charles Cheuka","email":"ctcheuka@gmail.com","position":"MDh","phone":"+263713123711"}]</t>
@@ -1438,6 +1441,9 @@
       <c r="J19" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="L19" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1468,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1500,10 +1506,10 @@
         <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1535,7 +1541,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1567,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1599,7 +1605,7 @@
         <v>42</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,10 +1637,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1666,7 +1672,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1730,7 +1736,7 @@
         <v>56</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1762,7 +1768,7 @@
         <v>56</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1794,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1826,10 +1832,10 @@
         <v>60</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1861,7 +1867,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1893,7 +1899,7 @@
         <v>69</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1925,10 +1931,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1960,13 +1966,13 @@
         <v>74</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
